--- a/FStatus.xlsx
+++ b/FStatus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS\GBDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C198AE9-274A-46E9-BFCE-C19BD923E397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EC0204-10D9-49FD-8B09-5EA238D9925E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEAACB22-872C-4DC8-9E1C-B0D3E1E8EA51}"/>
   </bookViews>
@@ -959,7 +959,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1041,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="26">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>2</v>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="E36" s="37">
         <f>SUM(E4:E35)</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F36" s="38" t="s">
         <v>4</v>

--- a/FStatus.xlsx
+++ b/FStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS\GBDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EC0204-10D9-49FD-8B09-5EA238D9925E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9CBE2B-FCB5-4F3C-837A-D745AD2BA877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEAACB22-872C-4DC8-9E1C-B0D3E1E8EA51}"/>
   </bookViews>
@@ -959,7 +959,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,9 @@
       <c r="B6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="26">
+        <v>400</v>
+      </c>
       <c r="D6" s="44" t="s">
         <v>33</v>
       </c>
@@ -1064,7 +1066,9 @@
       <c r="B7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="26">
+        <v>400</v>
+      </c>
       <c r="D7" s="44"/>
       <c r="E7" s="26"/>
       <c r="F7" s="44"/>
@@ -1082,7 +1086,9 @@
       <c r="B8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="26">
+        <v>400</v>
+      </c>
       <c r="D8" s="44"/>
       <c r="E8" s="26"/>
       <c r="F8" s="44"/>
@@ -1100,7 +1106,9 @@
       <c r="B9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="26">
+        <v>400</v>
+      </c>
       <c r="D9" s="44"/>
       <c r="E9" s="26"/>
       <c r="F9" s="44"/>
@@ -1118,7 +1126,9 @@
       <c r="B10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="26">
+        <v>400</v>
+      </c>
       <c r="D10" s="44"/>
       <c r="E10" s="26"/>
       <c r="F10" s="44"/>
@@ -1614,7 +1624,7 @@
       </c>
       <c r="C36" s="37">
         <f>SUM(C4:C35)</f>
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>4</v>

--- a/FStatus.xlsx
+++ b/FStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS\GBDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9CBE2B-FCB5-4F3C-837A-D745AD2BA877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C60381-8226-4604-9134-CD0FA70A3FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FEAACB22-872C-4DC8-9E1C-B0D3E1E8EA51}"/>
   </bookViews>
@@ -959,7 +959,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,6 +967,7 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -1146,7 +1147,9 @@
       <c r="B11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="27">
+        <v>2000</v>
+      </c>
       <c r="D11" s="44"/>
       <c r="E11" s="26"/>
       <c r="F11" s="44"/>
@@ -1172,9 +1175,13 @@
       <c r="B12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="26">
+        <v>-1000</v>
+      </c>
       <c r="D12" s="44"/>
-      <c r="E12" s="26"/>
+      <c r="E12" s="26">
+        <v>-1000</v>
+      </c>
       <c r="F12" s="44"/>
       <c r="G12" s="26"/>
       <c r="H12" s="44"/>
@@ -1624,14 +1631,14 @@
       </c>
       <c r="C36" s="37">
         <f>SUM(C4:C35)</f>
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>4</v>
       </c>
       <c r="E36" s="37">
         <f>SUM(E4:E35)</f>
-        <v>200</v>
+        <v>-800</v>
       </c>
       <c r="F36" s="38" t="s">
         <v>4</v>
